--- a/notebooks/CRX/input/CRX_CORD2_individuals.xlsx
+++ b/notebooks/CRX/input/CRX_CORD2_individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CRX/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61361E4-844D-9747-B90D-7BC9D22E4DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706BC05-EBC4-E942-AC95-8D16E74C1536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33680" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>OMIM:120970</t>
   </si>
   <si>
-    <t xml:space="preserve">Cone-rod retinal dystrophy-2		AD	3	</t>
-  </si>
-  <si>
     <t>HGNC:2383</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>proband</t>
+  </si>
+  <si>
+    <t>Cone-rod retinal dystrophy-2</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:R12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -640,25 +640,25 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>21</v>
@@ -702,129 +702,129 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
         <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
       <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>42</v>
-      </c>
       <c r="AB3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/CRX/input/CRX_CORD2_individuals.xlsx
+++ b/notebooks/CRX/input/CRX_CORD2_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CRX/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706BC05-EBC4-E942-AC95-8D16E74C1536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36F7F6-EDF5-CA45-9F19-C647E90E6C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="33680" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29840" yWindow="6520" windowWidth="42600" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
